--- a/data/MANUAL_LISTS.xlsx
+++ b/data/MANUAL_LISTS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="2038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="2039">
   <si>
     <t>entity</t>
   </si>
@@ -530,7 +530,7 @@
     <t>syv</t>
   </si>
   <si>
-    <t>otto</t>
+    <t>otte</t>
   </si>
   <si>
     <t>ni</t>
@@ -4533,6 +4533,9 @@
   </si>
   <si>
     <t>@twittter</t>
+  </si>
+  <si>
+    <t>twitter handle</t>
   </si>
   <si>
     <t>@NASA</t>
@@ -14425,77 +14428,107 @@
       <c r="B264" s="2">
         <v>1.0</v>
       </c>
+      <c r="C264" s="2" t="s">
+        <v>1502</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B265" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>1502</v>
-      </c>
-      <c r="B265" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B266" s="2">
         <v>1.0</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B267" s="2">
         <v>1.0</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B268" s="2">
         <v>1.0</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B269" s="2">
         <v>1.0</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B270" s="2">
         <v>1.0</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B271" s="2">
         <v>1.0</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B272" s="2">
         <v>1.0</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B273" s="2">
         <v>1.0</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="274">
@@ -14616,7 +14649,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -14624,7 +14657,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -14632,7 +14665,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -14640,7 +14673,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -14648,7 +14681,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B6" s="2">
         <v>1.0</v>
@@ -14656,7 +14689,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -14664,7 +14697,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B8" s="2">
         <v>1.0</v>
@@ -14672,7 +14705,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B9" s="2">
         <v>1.0</v>
@@ -14680,7 +14713,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B10" s="2">
         <v>1.0</v>
@@ -14688,7 +14721,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -14696,7 +14729,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -14704,7 +14737,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -14712,7 +14745,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -14720,7 +14753,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -14728,7 +14761,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -14736,7 +14769,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -14744,7 +14777,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -14752,7 +14785,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -14760,7 +14793,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -14768,7 +14801,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -14776,7 +14809,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -14784,7 +14817,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -14792,7 +14825,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -14800,7 +14833,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -14808,7 +14841,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -14816,7 +14849,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -14824,7 +14857,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -14832,7 +14865,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -14840,7 +14873,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -14848,7 +14881,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -14856,7 +14889,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -14864,7 +14897,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -14872,7 +14905,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -14880,7 +14913,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
@@ -14888,7 +14921,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -14912,7 +14945,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -14920,7 +14953,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -14928,7 +14961,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -14936,7 +14969,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -14944,7 +14977,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -14952,7 +14985,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -14960,7 +14993,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -14968,7 +15001,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -14976,7 +15009,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -14984,7 +15017,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -14992,7 +15025,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -15000,7 +15033,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -15008,7 +15041,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -15016,7 +15049,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -15024,7 +15057,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -15032,7 +15065,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -15040,7 +15073,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -15048,7 +15081,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -15056,7 +15089,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -15064,7 +15097,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B58" s="2">
         <v>1.0</v>
@@ -15072,7 +15105,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -15080,7 +15113,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -15088,7 +15121,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -15096,7 +15129,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -15104,7 +15137,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -15112,7 +15145,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -15120,7 +15153,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -15128,7 +15161,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -15136,7 +15169,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
@@ -15144,7 +15177,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B68" s="2">
         <v>1.0</v>
@@ -15152,7 +15185,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B69" s="2">
         <v>1.0</v>
@@ -15160,7 +15193,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B70" s="2">
         <v>1.0</v>
@@ -15168,7 +15201,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B71" s="2">
         <v>1.0</v>
@@ -15176,7 +15209,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B72" s="2">
         <v>1.0</v>
@@ -15184,7 +15217,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B73" s="2">
         <v>1.0</v>
@@ -15192,7 +15225,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B74" s="2">
         <v>1.0</v>
@@ -15200,7 +15233,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B75" s="2">
         <v>1.0</v>
@@ -15208,7 +15241,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B76" s="2">
         <v>1.0</v>
@@ -15216,7 +15249,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B77" s="2">
         <v>1.0</v>
@@ -15224,7 +15257,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B78" s="2">
         <v>1.0</v>
@@ -15232,7 +15265,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B79" s="2">
         <v>1.0</v>
@@ -15240,7 +15273,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B80" s="2">
         <v>1.0</v>
@@ -15248,7 +15281,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
@@ -15256,7 +15289,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
@@ -15264,7 +15297,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B83" s="2">
         <v>1.0</v>
@@ -15272,7 +15305,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -15280,7 +15313,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B85" s="2">
         <v>1.0</v>
@@ -15288,7 +15321,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B86" s="2">
         <v>1.0</v>
@@ -15296,7 +15329,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B87" s="2">
         <v>1.0</v>
@@ -15304,7 +15337,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B88" s="2">
         <v>1.0</v>
@@ -15312,7 +15345,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B89" s="2">
         <v>1.0</v>
@@ -15320,7 +15353,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -15328,7 +15361,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B91" s="2">
         <v>1.0</v>
@@ -15336,7 +15369,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -15344,7 +15377,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B93" s="2">
         <v>1.0</v>
@@ -15352,47 +15385,47 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
   </sheetData>
@@ -15431,7 +15464,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -15444,7 +15477,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -15457,7 +15490,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -15470,7 +15503,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -15483,7 +15516,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -15496,7 +15529,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
@@ -15509,7 +15542,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B8" s="1">
         <v>1.0</v>
@@ -15522,7 +15555,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -15535,7 +15568,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B10" s="1">
         <v>1.0</v>
@@ -15548,7 +15581,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -15561,7 +15594,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -15574,7 +15607,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -15587,7 +15620,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -15600,7 +15633,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -15613,7 +15646,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B16" s="1">
         <v>1.0</v>
@@ -15626,13 +15659,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -15641,7 +15674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B18" s="1">
         <v>1.0</v>
@@ -15654,13 +15687,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B19" s="1">
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -15669,7 +15702,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -15682,7 +15715,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -15695,7 +15728,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -15708,7 +15741,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B23" s="1">
         <v>1.0</v>
@@ -15721,7 +15754,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B24" s="1">
         <v>1.0</v>
@@ -15734,7 +15767,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -15747,7 +15780,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B26" s="1">
         <v>1.0</v>
@@ -15760,7 +15793,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B27" s="1">
         <v>1.0</v>
@@ -15773,7 +15806,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B28" s="1">
         <v>1.0</v>
@@ -15786,7 +15819,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B29" s="1">
         <v>1.0</v>
@@ -15799,7 +15832,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B30" s="1">
         <v>1.0</v>
@@ -15812,7 +15845,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B31" s="1">
         <v>1.0</v>
@@ -15825,7 +15858,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B32" s="1">
         <v>1.0</v>
@@ -15838,7 +15871,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B33" s="1">
         <v>1.0</v>
@@ -15851,7 +15884,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B34" s="1">
         <v>1.0</v>
@@ -15864,7 +15897,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B35" s="1">
         <v>1.0</v>
@@ -15877,40 +15910,40 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B36" s="1">
         <v>1.0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>1646</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B38" s="1">
         <v>1.0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B39" s="1">
         <v>1.0</v>
@@ -15918,7 +15951,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B40" s="1">
         <v>1.0</v>
@@ -15926,7 +15959,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B41" s="1">
         <v>1.0</v>
@@ -15934,7 +15967,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B42" s="1">
         <v>1.0</v>
@@ -15942,7 +15975,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B43" s="1">
         <v>1.0</v>
@@ -15950,7 +15983,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B44" s="1">
         <v>1.0</v>
@@ -15958,7 +15991,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B45" s="1">
         <v>1.0</v>
@@ -15966,7 +15999,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B46" s="1">
         <v>1.0</v>
@@ -15974,7 +16007,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B47" s="1">
         <v>1.0</v>
@@ -15982,7 +16015,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B48" s="1">
         <v>1.0</v>
@@ -15990,7 +16023,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B49" s="1">
         <v>1.0</v>
@@ -15998,18 +16031,18 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B50" s="1">
         <v>1.0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B51" s="1">
         <v>1.0</v>
@@ -16017,7 +16050,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B52" s="1">
         <v>1.0</v>
@@ -16025,7 +16058,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B53" s="1">
         <v>1.0</v>
@@ -16033,7 +16066,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B54" s="1">
         <v>1.0</v>
@@ -16041,7 +16074,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B55" s="1">
         <v>1.0</v>
@@ -16049,18 +16082,18 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B56" s="1">
         <v>1.0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B57" s="1">
         <v>1.0</v>
@@ -16068,7 +16101,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B58" s="1">
         <v>1.0</v>
@@ -16076,7 +16109,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B59" s="1">
         <v>1.0</v>
@@ -16084,7 +16117,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B60" s="1">
         <v>1.0</v>
@@ -16092,7 +16125,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B61" s="1">
         <v>1.0</v>
@@ -16100,7 +16133,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B62" s="1">
         <v>1.0</v>
@@ -16108,7 +16141,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B63" s="1">
         <v>1.0</v>
@@ -16116,7 +16149,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B64" s="1">
         <v>1.0</v>
@@ -16124,7 +16157,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B65" s="1">
         <v>1.0</v>
@@ -16132,7 +16165,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B66" s="1">
         <v>1.0</v>
@@ -16140,7 +16173,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B67" s="1">
         <v>1.0</v>
@@ -16148,7 +16181,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B68" s="1">
         <v>1.0</v>
@@ -16156,7 +16189,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B69" s="1">
         <v>1.0</v>
@@ -16164,7 +16197,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B70" s="1">
         <v>1.0</v>
@@ -16172,7 +16205,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B71" s="1">
         <v>1.0</v>
@@ -16180,7 +16213,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B72" s="1">
         <v>1.0</v>
@@ -16188,7 +16221,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B73" s="1">
         <v>1.0</v>
@@ -16196,7 +16229,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B74" s="1">
         <v>1.0</v>
@@ -16204,7 +16237,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B75" s="1">
         <v>1.0</v>
@@ -16212,7 +16245,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B76" s="1">
         <v>1.0</v>
@@ -16220,7 +16253,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B77" s="1">
         <v>1.0</v>
@@ -16228,7 +16261,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B78" s="1">
         <v>1.0</v>
@@ -16236,7 +16269,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B79" s="1">
         <v>1.0</v>
@@ -16244,7 +16277,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B80" s="1">
         <v>1.0</v>
@@ -16252,40 +16285,40 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B81" s="1">
         <v>1.0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B82" s="1">
         <v>1.0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B83" s="1">
         <v>1.0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B84" s="1">
         <v>1.0</v>
@@ -16293,7 +16326,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B85" s="1">
         <v>1.0</v>
@@ -16301,18 +16334,18 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B86" s="1">
         <v>1.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B87" s="1">
         <v>1.0</v>
@@ -16320,7 +16353,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B88" s="1">
         <v>1.0</v>
@@ -16328,7 +16361,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B89" s="1">
         <v>1.0</v>
@@ -16336,7 +16369,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B90" s="1">
         <v>1.0</v>
@@ -16344,40 +16377,40 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B91" s="1">
         <v>1.0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B92" s="1">
         <v>1.0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>1709</v>
-      </c>
-      <c r="B93" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B94" s="1">
         <v>1.0</v>
@@ -16385,7 +16418,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B95" s="1">
         <v>1.0</v>
@@ -16393,7 +16426,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B96" s="1">
         <v>1.0</v>
@@ -16401,40 +16434,40 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B97" s="1">
         <v>1.0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B98" s="1">
         <v>1.0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B99" s="1">
         <v>1.0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B100" s="1">
         <v>1.0</v>
@@ -16442,7 +16475,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B101" s="1">
         <v>1.0</v>
@@ -16450,7 +16483,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B102" s="1">
         <v>1.0</v>
@@ -16458,7 +16491,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B103" s="1">
         <v>1.0</v>
@@ -16466,7 +16499,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B104" s="1">
         <v>1.0</v>
@@ -16474,7 +16507,7 @@
     </row>
     <row r="105">
       <c r="A105" s="13" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B105" s="1">
         <v>1.0</v>
@@ -16482,18 +16515,18 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B106" s="1">
         <v>1.0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B107" s="1">
         <v>1.0</v>
@@ -16501,7 +16534,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B108" s="1">
         <v>1.0</v>
@@ -16509,7 +16542,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B109" s="1">
         <v>1.0</v>
@@ -16517,7 +16550,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B110" s="1">
         <v>1.0</v>
@@ -16525,7 +16558,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B111" s="1">
         <v>1.0</v>
@@ -16533,7 +16566,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B112" s="1">
         <v>1.0</v>
@@ -16541,7 +16574,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B113" s="1">
         <v>1.0</v>
@@ -16549,7 +16582,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B114" s="1">
         <v>1.0</v>
@@ -16557,7 +16590,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B115" s="1">
         <v>1.0</v>
@@ -16565,7 +16598,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B116" s="1">
         <v>1.0</v>
@@ -16573,7 +16606,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B117" s="1">
         <v>1.0</v>
@@ -16581,7 +16614,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B118" s="1">
         <v>1.0</v>
@@ -16589,7 +16622,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B119" s="1">
         <v>1.0</v>
@@ -16597,7 +16630,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B120" s="1">
         <v>1.0</v>
@@ -16605,7 +16638,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B121" s="1">
         <v>1.0</v>
@@ -16613,7 +16646,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B122" s="1">
         <v>1.0</v>
@@ -16621,7 +16654,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B123" s="1">
         <v>1.0</v>
@@ -16629,7 +16662,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B124" s="1">
         <v>1.0</v>
@@ -16637,7 +16670,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B125" s="1">
         <v>1.0</v>
@@ -16672,7 +16705,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -16680,7 +16713,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -16688,7 +16721,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -16696,7 +16729,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -16704,7 +16737,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B6" s="2">
         <v>1.0</v>
@@ -16712,7 +16745,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -16720,7 +16753,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B8" s="2">
         <v>5.0</v>
@@ -16728,7 +16761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -16736,7 +16769,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B10" s="2">
         <v>5.0</v>
@@ -16744,7 +16777,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B11" s="2">
         <v>5.0</v>
@@ -16752,7 +16785,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -16760,7 +16793,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -16768,7 +16801,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B14" s="2">
         <v>10.0</v>
@@ -16776,7 +16809,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B15" s="2">
         <v>20.0</v>
@@ -16784,7 +16817,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -16792,7 +16825,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -16800,7 +16833,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -16808,7 +16841,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B19" s="2">
         <v>10.0</v>
@@ -16816,7 +16849,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B20" s="2">
         <v>5.0</v>
@@ -16824,7 +16857,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B21" s="2">
         <v>10.0</v>
@@ -16832,7 +16865,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B22" s="2">
         <v>5.0</v>
@@ -16840,7 +16873,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B23" s="2">
         <v>5.0</v>
@@ -16848,7 +16881,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -16856,7 +16889,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -16864,7 +16897,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -16872,7 +16905,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -16880,7 +16913,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -16888,7 +16921,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B29" s="2">
         <v>10.0</v>
@@ -16896,7 +16929,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B30" s="2">
         <v>10.0</v>
@@ -16904,7 +16937,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B31" s="2">
         <v>5.0</v>
@@ -16912,7 +16945,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B32" s="2">
         <v>5.0</v>
@@ -16920,7 +16953,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B33" s="2">
         <v>5.0</v>
@@ -16928,7 +16961,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B34" s="2">
         <v>5.0</v>
@@ -16936,7 +16969,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B35" s="2">
         <v>5.0</v>
@@ -16944,7 +16977,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -16960,7 +16993,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B38" s="2">
         <v>5.0</v>
@@ -16968,7 +17001,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B39" s="2">
         <v>10.0</v>
@@ -16976,7 +17009,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B40" s="2">
         <v>4.0</v>
@@ -16984,7 +17017,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B41" s="2">
         <v>10.0</v>
@@ -16992,7 +17025,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B42" s="2">
         <v>5.0</v>
@@ -17000,7 +17033,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B43" s="2">
         <v>3.0</v>
@@ -17008,7 +17041,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B44" s="2">
         <v>3.0</v>
@@ -17016,7 +17049,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -17024,7 +17057,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -17032,7 +17065,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -17040,7 +17073,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -17048,7 +17081,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -17056,7 +17089,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -17064,7 +17097,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -17072,7 +17105,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -17080,7 +17113,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -17088,7 +17121,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -17096,7 +17129,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -17104,7 +17137,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -17142,7 +17175,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -17150,7 +17183,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B3" s="2">
         <v>5.0</v>
@@ -17158,7 +17191,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B4" s="2">
         <v>5.0</v>
@@ -17166,7 +17199,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B5" s="2">
         <v>5.0</v>
@@ -17174,7 +17207,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B6" s="2">
         <v>5.0</v>
@@ -17182,7 +17215,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B7" s="2">
         <v>5.0</v>
@@ -17190,7 +17223,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B8" s="2">
         <v>5.0</v>
@@ -17198,7 +17231,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -17206,7 +17239,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B10" s="2">
         <v>5.0</v>
@@ -17214,7 +17247,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -17222,7 +17255,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -17230,7 +17263,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -17238,7 +17271,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -17246,7 +17279,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -17254,7 +17287,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -17262,7 +17295,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -17270,7 +17303,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -17278,7 +17311,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -17286,7 +17319,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -17294,7 +17327,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -17302,7 +17335,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -17310,7 +17343,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -17318,7 +17351,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -17326,7 +17359,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -17334,7 +17367,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -17342,7 +17375,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -17350,7 +17383,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -17358,7 +17391,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -17366,7 +17399,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -17374,7 +17407,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -17382,7 +17415,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -17390,7 +17423,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -17398,7 +17431,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -17406,7 +17439,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
@@ -17414,7 +17447,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -17422,7 +17455,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -17430,7 +17463,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
@@ -17438,7 +17471,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -17446,7 +17479,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -17454,7 +17487,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -17462,7 +17495,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -17470,7 +17503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -17478,7 +17511,7 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -17486,7 +17519,7 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -17494,7 +17527,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -17502,7 +17535,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -17510,7 +17543,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -17518,7 +17551,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -17526,7 +17559,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -17534,7 +17567,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -17542,7 +17575,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -17550,7 +17583,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -17558,7 +17591,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -17566,7 +17599,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -17574,7 +17607,7 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -17582,7 +17615,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -17590,7 +17623,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B58" s="2">
         <v>1.0</v>
@@ -17598,7 +17631,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -17606,7 +17639,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -17614,7 +17647,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -17622,7 +17655,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -17630,7 +17663,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -17638,7 +17671,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -17646,7 +17679,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -17654,7 +17687,7 @@
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -17662,7 +17695,7 @@
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
@@ -17814,7 +17847,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -17830,7 +17863,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -17838,7 +17871,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B8" s="2">
         <v>1.0</v>
@@ -17846,7 +17879,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B9" s="2">
         <v>1.0</v>
@@ -17854,7 +17887,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B10" s="2">
         <v>1.0</v>
@@ -17862,7 +17895,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -17870,7 +17903,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -17878,7 +17911,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -17886,7 +17919,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -17894,7 +17927,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -17902,7 +17935,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -17910,7 +17943,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -17918,7 +17951,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -17926,7 +17959,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -17934,7 +17967,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -17942,7 +17975,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -17950,7 +17983,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -17958,7 +17991,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -17966,7 +17999,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -17974,7 +18007,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -17982,7 +18015,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -17990,7 +18023,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -17998,7 +18031,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -18006,7 +18039,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -18014,7 +18047,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -18022,7 +18055,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -18030,7 +18063,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -18038,7 +18071,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -18046,7 +18079,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -18054,18 +18087,18 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -18073,7 +18106,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -18081,7 +18114,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
@@ -18089,7 +18122,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -18097,7 +18130,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -18105,7 +18138,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -18113,7 +18146,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -18121,7 +18154,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -18129,7 +18162,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -18137,7 +18170,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -18145,7 +18178,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -18153,7 +18186,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -18161,7 +18194,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -18169,7 +18202,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -18177,7 +18210,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -18185,7 +18218,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -18193,7 +18226,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -18201,7 +18234,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -18209,7 +18242,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -18217,7 +18250,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -18225,7 +18258,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -18233,7 +18266,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -18249,7 +18282,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -18257,7 +18290,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -18265,7 +18298,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -18273,7 +18306,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -18281,7 +18314,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -18292,18 +18325,18 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -18314,29 +18347,29 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B68" s="2">
         <v>1.0</v>
@@ -18352,7 +18385,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B70" s="2">
         <v>1.0</v>
@@ -18360,7 +18393,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B71" s="2">
         <v>1.0</v>
@@ -18368,7 +18401,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B72" s="2">
         <v>1.0</v>
@@ -18376,7 +18409,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B73" s="2">
         <v>1.0</v>
@@ -18384,18 +18417,18 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B74" s="2">
         <v>1.0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B75" s="2">
         <v>1.0</v>
@@ -18403,18 +18436,18 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B76" s="2">
         <v>1.0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B77" s="2">
         <v>1.0</v>
@@ -18422,7 +18455,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B78" s="2">
         <v>1.0</v>
@@ -18430,7 +18463,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B79" s="2">
         <v>1.0</v>
@@ -18438,7 +18471,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B80" s="2">
         <v>1.0</v>
@@ -18446,7 +18479,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
@@ -18454,7 +18487,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
@@ -18462,18 +18495,18 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B83" s="2">
         <v>1.0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -18481,29 +18514,29 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B85" s="2">
         <v>1.0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B86" s="2">
         <v>1.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B87" s="2">
         <v>1.0</v>
@@ -18511,18 +18544,18 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B88" s="2">
         <v>1.0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B89" s="2">
         <v>1.0</v>
@@ -18530,7 +18563,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -18538,18 +18571,18 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B91" s="2">
         <v>1.0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -18557,7 +18590,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B93" s="2">
         <v>1.0</v>
@@ -18565,7 +18598,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B94" s="2">
         <v>1.0</v>
@@ -18573,7 +18606,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B95" s="2">
         <v>1.0</v>
@@ -18581,7 +18614,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B96" s="2">
         <v>1.0</v>
@@ -18589,18 +18622,18 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B97" s="2">
         <v>1.0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B98" s="2">
         <v>1.0</v>
@@ -18608,18 +18641,18 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B100" s="2">
         <v>1.0</v>
@@ -18627,7 +18660,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B101" s="2">
         <v>1.0</v>
@@ -18635,7 +18668,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B102" s="2">
         <v>1.0</v>
@@ -18643,7 +18676,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B103" s="2">
         <v>1.0</v>
@@ -18651,7 +18684,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B104" s="2">
         <v>1.0</v>
@@ -18659,7 +18692,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B105" s="2">
         <v>1.0</v>
@@ -18667,7 +18700,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B106" s="2">
         <v>1.0</v>
@@ -18675,7 +18708,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B107" s="2">
         <v>1.0</v>
@@ -18683,7 +18716,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B108" s="2">
         <v>1.0</v>
@@ -18691,18 +18724,18 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B109" s="2">
         <v>1.0</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B110" s="2">
         <v>1.0</v>
@@ -18710,7 +18743,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B111" s="2">
         <v>1.0</v>
@@ -18718,18 +18751,18 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B112" s="2">
         <v>1.0</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B113" s="2">
         <v>1.0</v>
@@ -18737,7 +18770,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B114" s="2">
         <v>1.0</v>
@@ -18745,7 +18778,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B115" s="2">
         <v>1.0</v>
@@ -18753,7 +18786,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B116" s="2">
         <v>1.0</v>
@@ -18761,7 +18794,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B117" s="2">
         <v>1.0</v>
@@ -18769,7 +18802,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B118" s="2">
         <v>1.0</v>
@@ -18777,7 +18810,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B119" s="2">
         <v>1.0</v>
@@ -18785,7 +18818,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B120" s="2">
         <v>1.0</v>
@@ -18793,7 +18826,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B121" s="2">
         <v>1.0</v>
@@ -18801,7 +18834,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B122" s="2">
         <v>1.0</v>
@@ -18809,7 +18842,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B123" s="2">
         <v>1.0</v>
@@ -18817,7 +18850,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B124" s="2">
         <v>1.0</v>
@@ -18825,7 +18858,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B125" s="2">
         <v>1.0</v>
@@ -18833,7 +18866,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B126" s="2">
         <v>1.0</v>
@@ -18841,7 +18874,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B127" s="2">
         <v>1.0</v>
@@ -18849,7 +18882,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B128" s="2">
         <v>1.0</v>
@@ -18857,7 +18890,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B129" s="2">
         <v>1.0</v>
@@ -18865,7 +18898,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B130" s="2">
         <v>1.0</v>
@@ -18873,7 +18906,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B131" s="2">
         <v>1.0</v>
@@ -18881,7 +18914,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B132" s="2">
         <v>1.0</v>
@@ -18889,7 +18922,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B133" s="2">
         <v>1.0</v>
@@ -18897,7 +18930,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B134" s="2">
         <v>1.0</v>
@@ -18905,7 +18938,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B135" s="2">
         <v>1.0</v>
@@ -18913,7 +18946,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B136" s="2">
         <v>1.0</v>
@@ -18921,7 +18954,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B137" s="2">
         <v>1.0</v>
@@ -18929,7 +18962,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B138" s="2">
         <v>1.0</v>
@@ -18937,7 +18970,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B139" s="2">
         <v>1.0</v>
@@ -18945,7 +18978,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B140" s="2">
         <v>1.0</v>
@@ -18953,7 +18986,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B141" s="2">
         <v>1.0</v>
@@ -18961,7 +18994,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B142" s="2">
         <v>1.0</v>
@@ -18969,7 +19002,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B143" s="2">
         <v>1.0</v>
@@ -18977,7 +19010,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B144" s="2">
         <v>1.0</v>
@@ -18985,7 +19018,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B145" s="2">
         <v>1.0</v>
@@ -18993,7 +19026,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B146" s="2">
         <v>1.0</v>
@@ -19001,7 +19034,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B147" s="2">
         <v>1.0</v>
@@ -19009,7 +19042,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B148" s="2">
         <v>1.0</v>
@@ -19017,7 +19050,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B149" s="2">
         <v>1.0</v>
@@ -19025,7 +19058,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B150" s="2">
         <v>1.0</v>
@@ -19033,7 +19066,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B151" s="2">
         <v>1.0</v>
@@ -19041,7 +19074,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B152" s="2">
         <v>1.0</v>
@@ -19049,7 +19082,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B153" s="2">
         <v>1.0</v>
@@ -19057,7 +19090,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B154" s="2">
         <v>1.0</v>
@@ -19065,7 +19098,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B155" s="2">
         <v>1.0</v>
@@ -19073,7 +19106,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B156" s="2">
         <v>1.0</v>
@@ -19081,7 +19114,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B157" s="2">
         <v>1.0</v>
@@ -19089,7 +19122,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B158" s="2">
         <v>1.0</v>
@@ -19097,7 +19130,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B159" s="2">
         <v>1.0</v>
@@ -19105,7 +19138,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B160" s="2">
         <v>1.0</v>
@@ -19121,7 +19154,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B162" s="2">
         <v>1.0</v>
@@ -19129,7 +19162,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B163" s="2">
         <v>1.0</v>
@@ -19137,7 +19170,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B164" s="2">
         <v>1.0</v>
@@ -19145,7 +19178,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B165" s="2">
         <v>1.0</v>
@@ -19153,7 +19186,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B166" s="2">
         <v>1.0</v>
@@ -19164,7 +19197,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B167" s="2">
         <v>1.0</v>
@@ -19175,7 +19208,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B168" s="2">
         <v>1.0</v>
@@ -19186,7 +19219,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B169" s="2">
         <v>1.0</v>
@@ -19194,7 +19227,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B170" s="2">
         <v>1.0</v>
@@ -19202,7 +19235,7 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B171" s="2">
         <v>1.0</v>
@@ -19211,7 +19244,7 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B172" s="2">
         <v>1.0</v>
@@ -19220,7 +19253,7 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B173" s="2">
         <v>1.0</v>
@@ -19229,18 +19262,18 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B174" s="2">
         <v>1.0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B175" s="2">
         <v>1.0</v>
@@ -19249,7 +19282,7 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B176" s="2">
         <v>1.0</v>
@@ -19258,7 +19291,7 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B177" s="2">
         <v>1.0</v>
@@ -19267,7 +19300,7 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B178" s="2">
         <v>1.0</v>
@@ -19276,7 +19309,7 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B179" s="2">
         <v>1.0</v>

--- a/data/MANUAL_LISTS.xlsx
+++ b/data/MANUAL_LISTS.xlsx
@@ -15387,45 +15387,72 @@
       <c r="A94" s="2" t="s">
         <v>1602</v>
       </c>
+      <c r="B94" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
         <v>1603</v>
       </c>
+      <c r="B95" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
         <v>1604</v>
       </c>
+      <c r="B96" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
         <v>1605</v>
       </c>
+      <c r="B97" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
         <v>1606</v>
       </c>
+      <c r="B98" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
         <v>1599</v>
       </c>
+      <c r="B99" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
         <v>1607</v>
       </c>
+      <c r="B100" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
         <v>1608</v>
       </c>
+      <c r="B101" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
         <v>1609</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/MANUAL_LISTS.xlsx
+++ b/data/MANUAL_LISTS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="2039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="2038">
   <si>
     <t>entity</t>
   </si>
@@ -770,7 +770,7 @@
     <t>coronapandemien</t>
   </si>
   <si>
-    <t>cornonaviruspandemien</t>
+    <t>cononaviruspandemien</t>
   </si>
   <si>
     <t>Bhopaulykken</t>
@@ -1436,7 +1436,7 @@
     <t>meteora-klostrene</t>
   </si>
   <si>
-    <t>Empire State Bulding</t>
+    <t>Empire State Building</t>
   </si>
   <si>
     <t>One WTC</t>
@@ -1451,7 +1451,7 @@
     <t>Bagan-templet</t>
   </si>
   <si>
-    <t>Stongehenge</t>
+    <t>Stonehenge</t>
   </si>
   <si>
     <t>E1</t>
@@ -2420,7 +2420,7 @@
     <t>Ølstykke</t>
   </si>
   <si>
-    <t xml:space="preserve">Ørsted </t>
+    <t>Ørsted</t>
   </si>
   <si>
     <t>kinesisk</t>
@@ -2672,7 +2672,7 @@
     <t>§ 5 i økologiloven</t>
   </si>
   <si>
-    <t xml:space="preserve">retsplejelovens § 834, stk. 1, nr. 2 </t>
+    <t>retsplejelovens § 834, stk. 1, nr. 2</t>
   </si>
   <si>
     <t xml:space="preserve">§ 9 i lov nr. 395 </t>
@@ -2870,7 +2870,7 @@
     <t>direktiv nr. 88/77/EØF</t>
   </si>
   <si>
-    <t xml:space="preserve">direktiv1999/96/EF </t>
+    <t>direktiv1999/96/EF</t>
   </si>
   <si>
     <t>Stillehavet</t>
@@ -3749,9 +3749,6 @@
     <t>USTC</t>
   </si>
   <si>
-    <t>Ørsted</t>
-  </si>
-  <si>
     <t>DONG energy</t>
   </si>
   <si>
@@ -4295,7 +4292,7 @@
     <t>SønderjyskE</t>
   </si>
   <si>
-    <t>TTH Holsterbro</t>
+    <t>TTH Holstebro</t>
   </si>
   <si>
     <t>KIF Kolding</t>
@@ -5186,7 +5183,7 @@
     <t>decoration</t>
   </si>
   <si>
-    <t xml:space="preserve">Eva Lysestage </t>
+    <t>Eva Lysestage</t>
   </si>
   <si>
     <t>Matima O-Neck Tee</t>
@@ -5600,10 +5597,10 @@
     <t>06.00-15.00</t>
   </si>
   <si>
-    <t>04:30-10.00</t>
-  </si>
-  <si>
-    <t>18:15-19.15</t>
+    <t>04:30-10:00</t>
+  </si>
+  <si>
+    <t>18:15-19:15</t>
   </si>
   <si>
     <t>10.00 - 11.00</t>
@@ -5624,7 +5621,7 @@
     <t>Fru Marie Grubbe</t>
   </si>
   <si>
-    <t xml:space="preserve">Kongens fald </t>
+    <t>Kongens fald</t>
   </si>
   <si>
     <t>Pelle Erobreren</t>
@@ -5996,7 +5993,7 @@
     <t>Pac-Man</t>
   </si>
   <si>
-    <t>Need of Speed Underground</t>
+    <t>Need for Speed Underground</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -6122,7 +6119,7 @@
     <t>Monopoly</t>
   </si>
   <si>
-    <t xml:space="preserve">Partners </t>
+    <t>Partners</t>
   </si>
   <si>
     <t>Bezzerwizzer Familie</t>
@@ -12289,7 +12286,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1240</v>
+        <v>797</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -12297,7 +12294,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -12305,18 +12302,18 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>1242</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -12324,7 +12321,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -12332,7 +12329,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -12340,7 +12337,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -12348,7 +12345,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -12356,7 +12353,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -12364,7 +12361,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -12372,7 +12369,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -12380,7 +12377,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -12388,7 +12385,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -12396,7 +12393,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -12404,7 +12401,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -12412,7 +12409,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -12420,7 +12417,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -12428,7 +12425,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -12436,7 +12433,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -12444,18 +12441,18 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>1260</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -12463,29 +12460,29 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>1263</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>1265</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -12493,7 +12490,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -12501,7 +12498,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -12509,7 +12506,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -12517,7 +12514,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -12525,7 +12522,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -12533,7 +12530,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -12541,18 +12538,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>1274</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -12560,7 +12557,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -12568,7 +12565,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -12576,7 +12573,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -12584,7 +12581,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -12592,7 +12589,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -12600,7 +12597,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -12608,7 +12605,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -12616,7 +12613,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -12624,7 +12621,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -12632,7 +12629,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -12640,7 +12637,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B58" s="2">
         <v>1.0</v>
@@ -12648,7 +12645,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -12656,7 +12653,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -12664,7 +12661,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -12672,7 +12669,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -12680,7 +12677,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -12688,7 +12685,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -12696,18 +12693,18 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>1294</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -12715,7 +12712,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
@@ -12723,18 +12720,18 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>1298</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B69" s="2">
         <v>1.0</v>
@@ -12742,18 +12739,18 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B70" s="2">
         <v>1.0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B71" s="2">
         <v>1.0</v>
@@ -12761,7 +12758,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B72" s="2">
         <v>1.0</v>
@@ -12769,18 +12766,18 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B73" s="2">
         <v>1.0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B74" s="2">
         <v>1.0</v>
@@ -12788,18 +12785,18 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B75" s="2">
         <v>1.0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B76" s="2">
         <v>1.0</v>
@@ -12807,7 +12804,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B77" s="2">
         <v>1.0</v>
@@ -12815,18 +12812,18 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B78" s="2">
         <v>1.0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B79" s="2">
         <v>1.0</v>
@@ -12834,7 +12831,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B80" s="2">
         <v>1.0</v>
@@ -12842,18 +12839,18 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
@@ -12861,7 +12858,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B83" s="2">
         <v>1.0</v>
@@ -12869,7 +12866,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -12877,7 +12874,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B85" s="2">
         <v>1.0</v>
@@ -12885,7 +12882,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B86" s="2">
         <v>1.0</v>
@@ -12893,18 +12890,18 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B88" s="2">
         <v>1.0</v>
@@ -12912,7 +12909,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B89" s="2">
         <v>1.0</v>
@@ -12920,7 +12917,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -12928,7 +12925,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B91" s="2">
         <v>1.0</v>
@@ -12936,7 +12933,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -12944,7 +12941,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B93" s="2">
         <v>1.0</v>
@@ -12952,7 +12949,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B94" s="2">
         <v>1.0</v>
@@ -12960,7 +12957,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B95" s="2">
         <v>1.0</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B96" s="2">
         <v>1.0</v>
@@ -12976,7 +12973,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B97" s="2">
         <v>1.0</v>
@@ -12984,7 +12981,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B98" s="2">
         <v>1.0</v>
@@ -12992,7 +12989,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
@@ -13000,7 +12997,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B100" s="2">
         <v>1.0</v>
@@ -13008,7 +13005,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B101" s="2">
         <v>1.0</v>
@@ -13016,18 +13013,18 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B102" s="2">
         <v>1.0</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B103" s="2">
         <v>1.0</v>
@@ -13035,7 +13032,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B104" s="2">
         <v>1.0</v>
@@ -13043,7 +13040,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B105" s="2">
         <v>1.0</v>
@@ -13051,7 +13048,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B106" s="2">
         <v>1.0</v>
@@ -13059,7 +13056,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B107" s="2">
         <v>1.0</v>
@@ -13067,7 +13064,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B108" s="2">
         <v>1.0</v>
@@ -13075,7 +13072,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B109" s="2">
         <v>1.0</v>
@@ -13083,7 +13080,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B110" s="2">
         <v>1.0</v>
@@ -13091,7 +13088,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B111" s="2">
         <v>1.0</v>
@@ -13099,7 +13096,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B112" s="2">
         <v>1.0</v>
@@ -13107,7 +13104,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B113" s="2">
         <v>1.0</v>
@@ -13115,7 +13112,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B114" s="2">
         <v>1.0</v>
@@ -13123,7 +13120,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B115" s="2">
         <v>1.0</v>
@@ -13131,7 +13128,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B116" s="2">
         <v>1.0</v>
@@ -13139,7 +13136,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B117" s="2">
         <v>1.0</v>
@@ -13147,7 +13144,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B118" s="2">
         <v>1.0</v>
@@ -13155,7 +13152,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B119" s="2">
         <v>1.0</v>
@@ -13163,18 +13160,18 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="B120" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B121" s="2">
         <v>1.0</v>
@@ -13182,7 +13179,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B122" s="2">
         <v>1.0</v>
@@ -13190,7 +13187,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B123" s="2">
         <v>1.0</v>
@@ -13198,18 +13195,18 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>1357</v>
-      </c>
-      <c r="B124" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B125" s="2">
         <v>1.0</v>
@@ -13217,7 +13214,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B126" s="2">
         <v>1.0</v>
@@ -13225,7 +13222,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B127" s="2">
         <v>1.0</v>
@@ -13233,7 +13230,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B128" s="2">
         <v>1.0</v>
@@ -13241,7 +13238,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B129" s="2">
         <v>1.0</v>
@@ -13249,18 +13246,18 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B130" s="2">
         <v>1.0</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B131" s="2">
         <v>1.0</v>
@@ -13268,29 +13265,29 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="B132" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="B133" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B134" s="2">
         <v>1.0</v>
@@ -13298,29 +13295,29 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="B135" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B136" s="2">
         <v>1.0</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B137" s="2">
         <v>1.0</v>
@@ -13328,7 +13325,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B138" s="2">
         <v>1.0</v>
@@ -13336,7 +13333,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B139" s="2">
         <v>1.0</v>
@@ -13344,7 +13341,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B140" s="2">
         <v>1.0</v>
@@ -13352,7 +13349,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B141" s="2">
         <v>1.0</v>
@@ -13360,7 +13357,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B142" s="2">
         <v>1.0</v>
@@ -13368,7 +13365,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B143" s="2">
         <v>1.0</v>
@@ -13376,18 +13373,18 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>1381</v>
-      </c>
-      <c r="B144" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B145" s="2">
         <v>1.0</v>
@@ -13395,7 +13392,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B146" s="2">
         <v>1.0</v>
@@ -13403,7 +13400,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B147" s="2">
         <v>1.0</v>
@@ -13411,7 +13408,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B148" s="2">
         <v>1.0</v>
@@ -13419,7 +13416,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B149" s="2">
         <v>1.0</v>
@@ -13427,7 +13424,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B150" s="2">
         <v>1.0</v>
@@ -13435,7 +13432,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B151" s="2">
         <v>1.0</v>
@@ -13443,7 +13440,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B152" s="2">
         <v>1.0</v>
@@ -13451,7 +13448,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B153" s="2">
         <v>1.0</v>
@@ -13459,7 +13456,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B154" s="2">
         <v>1.0</v>
@@ -13467,7 +13464,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B155" s="2">
         <v>1.0</v>
@@ -13475,7 +13472,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B156" s="2">
         <v>1.0</v>
@@ -13483,7 +13480,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B157" s="2">
         <v>1.0</v>
@@ -13491,7 +13488,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B158" s="2">
         <v>1.0</v>
@@ -13499,7 +13496,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B159" s="2">
         <v>1.0</v>
@@ -13507,7 +13504,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B160" s="2">
         <v>1.0</v>
@@ -13515,7 +13512,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B161" s="2">
         <v>1.0</v>
@@ -13523,7 +13520,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B162" s="2">
         <v>1.0</v>
@@ -13531,7 +13528,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B163" s="2">
         <v>1.0</v>
@@ -13539,13 +13536,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B164" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>1402</v>
-      </c>
-      <c r="B164" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="165">
@@ -13556,18 +13553,18 @@
         <v>1.0</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B166" s="2">
         <v>1.0</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="167">
@@ -13578,18 +13575,18 @@
         <v>1.0</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B168" s="2">
         <v>1.0</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="169">
@@ -13600,7 +13597,7 @@
         <v>1.0</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="170">
@@ -13611,29 +13608,29 @@
         <v>1.0</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B171" s="2">
         <v>1.0</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B172" s="2">
         <v>1.0</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="173">
@@ -13644,23 +13641,23 @@
         <v>1.0</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B174" s="2">
         <v>1.0</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B175" s="2">
         <v>1.0</v>
@@ -13668,13 +13665,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B176" s="2">
         <v>1.0</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="177">
@@ -13685,12 +13682,12 @@
         <v>1.0</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B178" s="2">
         <v>1.0</v>
@@ -13698,18 +13695,18 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B179" s="2">
         <v>1.0</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B180" s="2">
         <v>1.0</v>
@@ -13717,7 +13714,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B181" s="2">
         <v>1.0</v>
@@ -13725,7 +13722,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B182" s="2">
         <v>1.0</v>
@@ -13733,18 +13730,18 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>1416</v>
-      </c>
-      <c r="B183" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B184" s="2">
         <v>1.0</v>
@@ -13752,24 +13749,24 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B185" s="2">
         <v>1.0</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B186" s="2">
         <v>1.0</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="187">
@@ -13780,45 +13777,45 @@
         <v>1.0</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B188" s="2">
         <v>1.0</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B189" s="2">
         <v>1.0</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B190" s="2">
         <v>1.0</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B191" s="2">
         <v>1.0</v>
@@ -13826,7 +13823,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B192" s="2">
         <v>1.0</v>
@@ -13834,7 +13831,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B193" s="2">
         <v>1.0</v>
@@ -13842,7 +13839,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B194" s="2">
         <v>1.0</v>
@@ -13850,7 +13847,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B195" s="2">
         <v>1.0</v>
@@ -13858,7 +13855,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B196" s="2">
         <v>1.0</v>
@@ -13866,7 +13863,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B197" s="2">
         <v>1.0</v>
@@ -13874,7 +13871,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B198" s="2">
         <v>1.0</v>
@@ -13882,7 +13879,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B199" s="2">
         <v>1.0</v>
@@ -13890,7 +13887,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B200" s="2">
         <v>1.0</v>
@@ -13898,18 +13895,18 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B201" s="2">
         <v>1.0</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B202" s="2">
         <v>1.0</v>
@@ -13917,7 +13914,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B203" s="2">
         <v>1.0</v>
@@ -13925,7 +13922,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B204" s="2">
         <v>1.0</v>
@@ -13933,7 +13930,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B205" s="2">
         <v>1.0</v>
@@ -13941,18 +13938,18 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1439</v>
-      </c>
-      <c r="B206" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B207" s="2">
         <v>1.0</v>
@@ -13960,7 +13957,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B208" s="2">
         <v>1.0</v>
@@ -13968,7 +13965,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B209" s="2">
         <v>1.0</v>
@@ -13976,7 +13973,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B210" s="2">
         <v>1.0</v>
@@ -13984,7 +13981,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B211" s="2">
         <v>1.0</v>
@@ -13992,7 +13989,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B212" s="2">
         <v>1.0</v>
@@ -14000,18 +13997,18 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1447</v>
-      </c>
-      <c r="B213" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B214" s="2">
         <v>1.0</v>
@@ -14019,7 +14016,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B215" s="2">
         <v>1.0</v>
@@ -14027,7 +14024,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B216" s="2">
         <v>1.0</v>
@@ -14035,7 +14032,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B217" s="2">
         <v>1.0</v>
@@ -14043,7 +14040,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B218" s="2">
         <v>1.0</v>
@@ -14051,7 +14048,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B219" s="2">
         <v>1.0</v>
@@ -14059,7 +14056,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B220" s="2">
         <v>1.0</v>
@@ -14067,7 +14064,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B221" s="2">
         <v>1.0</v>
@@ -14075,7 +14072,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B222" s="2">
         <v>1.0</v>
@@ -14083,7 +14080,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B223" s="2">
         <v>1.0</v>
@@ -14091,7 +14088,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B224" s="2">
         <v>1.0</v>
@@ -14099,7 +14096,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B225" s="2">
         <v>1.0</v>
@@ -14107,7 +14104,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B226" s="2">
         <v>1.0</v>
@@ -14115,7 +14112,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B227" s="2">
         <v>1.0</v>
@@ -14123,7 +14120,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B228" s="2">
         <v>1.0</v>
@@ -14131,7 +14128,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B229" s="2">
         <v>1.0</v>
@@ -14139,7 +14136,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B230" s="2">
         <v>1.0</v>
@@ -14147,7 +14144,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B231" s="2">
         <v>1.0</v>
@@ -14155,7 +14152,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B232" s="2">
         <v>1.0</v>
@@ -14163,7 +14160,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B233" s="2">
         <v>1.0</v>
@@ -14171,7 +14168,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B234" s="2">
         <v>1.0</v>
@@ -14179,7 +14176,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B235" s="2">
         <v>1.0</v>
@@ -14187,18 +14184,18 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1471</v>
-      </c>
-      <c r="B236" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B237" s="2">
         <v>1.0</v>
@@ -14206,7 +14203,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B238" s="2">
         <v>1.0</v>
@@ -14214,7 +14211,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B239" s="2">
         <v>1.0</v>
@@ -14222,7 +14219,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B240" s="2">
         <v>1.0</v>
@@ -14230,7 +14227,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B241" s="2">
         <v>1.0</v>
@@ -14238,7 +14235,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B242" s="2">
         <v>1.0</v>
@@ -14246,7 +14243,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B243" s="2">
         <v>1.0</v>
@@ -14254,7 +14251,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B244" s="2">
         <v>1.0</v>
@@ -14262,7 +14259,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B245" s="2">
         <v>1.0</v>
@@ -14270,7 +14267,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B246" s="2">
         <v>1.0</v>
@@ -14278,7 +14275,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B247" s="2">
         <v>1.0</v>
@@ -14286,7 +14283,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B248" s="2">
         <v>1.0</v>
@@ -14294,7 +14291,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B249" s="2">
         <v>1.0</v>
@@ -14302,7 +14299,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B250" s="2">
         <v>1.0</v>
@@ -14310,7 +14307,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B251" s="2">
         <v>1.0</v>
@@ -14318,18 +14315,18 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="B252" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B253" s="2">
         <v>1.0</v>
@@ -14337,7 +14334,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B254" s="2">
         <v>1.0</v>
@@ -14345,7 +14342,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B255" s="2">
         <v>1.0</v>
@@ -14353,7 +14350,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B256" s="2">
         <v>1.0</v>
@@ -14361,7 +14358,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B257" s="2">
         <v>1.0</v>
@@ -14369,7 +14366,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B258" s="2">
         <v>1.0</v>
@@ -14377,7 +14374,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B259" s="2">
         <v>1.0</v>
@@ -14385,29 +14382,29 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B260" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>1496</v>
-      </c>
-      <c r="B260" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B261" s="2">
         <v>1.0</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B262" s="2">
         <v>1.0</v>
@@ -14415,7 +14412,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B263" s="2">
         <v>1.0</v>
@@ -14423,112 +14420,112 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B264" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>1501</v>
-      </c>
-      <c r="B264" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B265" s="2">
         <v>1.0</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B266" s="2">
         <v>1.0</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B267" s="2">
         <v>1.0</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B268" s="2">
         <v>1.0</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B269" s="2">
         <v>1.0</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B270" s="2">
         <v>1.0</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B271" s="2">
         <v>1.0</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B272" s="2">
         <v>1.0</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B273" s="2">
         <v>1.0</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="274">
@@ -14649,7 +14646,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -14657,7 +14654,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -14665,7 +14662,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -14673,7 +14670,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -14681,7 +14678,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B6" s="2">
         <v>1.0</v>
@@ -14689,7 +14686,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -14697,7 +14694,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B8" s="2">
         <v>1.0</v>
@@ -14705,7 +14702,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B9" s="2">
         <v>1.0</v>
@@ -14713,7 +14710,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B10" s="2">
         <v>1.0</v>
@@ -14721,7 +14718,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -14729,7 +14726,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -14737,7 +14734,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -14745,7 +14742,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -14753,7 +14750,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -14761,7 +14758,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -14769,7 +14766,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -14777,7 +14774,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -14785,7 +14782,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -14793,7 +14790,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -14801,7 +14798,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -14809,7 +14806,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -14817,7 +14814,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -14825,7 +14822,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -14833,7 +14830,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -14841,7 +14838,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -14849,7 +14846,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -14857,7 +14854,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -14865,7 +14862,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -14873,7 +14870,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -14881,7 +14878,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -14889,7 +14886,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -14897,7 +14894,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -14905,7 +14902,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -14913,7 +14910,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
@@ -14921,7 +14918,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -14945,7 +14942,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -14953,7 +14950,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -14961,7 +14958,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -14969,7 +14966,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -14977,7 +14974,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -14985,7 +14982,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -14993,7 +14990,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -15001,7 +14998,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -15009,7 +15006,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -15017,7 +15014,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -15025,7 +15022,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -15033,7 +15030,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -15041,7 +15038,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -15049,7 +15046,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -15057,7 +15054,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -15065,7 +15062,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -15073,7 +15070,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -15081,7 +15078,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -15089,7 +15086,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -15097,7 +15094,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B58" s="2">
         <v>1.0</v>
@@ -15105,7 +15102,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -15113,7 +15110,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -15121,7 +15118,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -15129,7 +15126,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -15137,7 +15134,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -15145,7 +15142,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -15153,7 +15150,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -15161,7 +15158,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -15169,7 +15166,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
@@ -15177,7 +15174,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B68" s="2">
         <v>1.0</v>
@@ -15185,7 +15182,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B69" s="2">
         <v>1.0</v>
@@ -15193,7 +15190,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B70" s="2">
         <v>1.0</v>
@@ -15201,7 +15198,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B71" s="2">
         <v>1.0</v>
@@ -15209,7 +15206,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B72" s="2">
         <v>1.0</v>
@@ -15217,7 +15214,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B73" s="2">
         <v>1.0</v>
@@ -15225,7 +15222,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B74" s="2">
         <v>1.0</v>
@@ -15233,7 +15230,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B75" s="2">
         <v>1.0</v>
@@ -15241,7 +15238,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B76" s="2">
         <v>1.0</v>
@@ -15249,7 +15246,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B77" s="2">
         <v>1.0</v>
@@ -15257,7 +15254,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B78" s="2">
         <v>1.0</v>
@@ -15265,7 +15262,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B79" s="2">
         <v>1.0</v>
@@ -15273,7 +15270,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B80" s="2">
         <v>1.0</v>
@@ -15281,7 +15278,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
@@ -15289,7 +15286,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
@@ -15297,7 +15294,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B83" s="2">
         <v>1.0</v>
@@ -15305,7 +15302,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -15313,7 +15310,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B85" s="2">
         <v>1.0</v>
@@ -15321,7 +15318,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B86" s="2">
         <v>1.0</v>
@@ -15329,7 +15326,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B87" s="2">
         <v>1.0</v>
@@ -15337,7 +15334,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B88" s="2">
         <v>1.0</v>
@@ -15345,7 +15342,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B89" s="2">
         <v>1.0</v>
@@ -15353,7 +15350,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -15361,7 +15358,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B91" s="2">
         <v>1.0</v>
@@ -15369,7 +15366,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -15377,7 +15374,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B93" s="2">
         <v>1.0</v>
@@ -15385,7 +15382,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B94" s="2">
         <v>1.0</v>
@@ -15393,7 +15390,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B95" s="2">
         <v>1.0</v>
@@ -15401,7 +15398,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B96" s="2">
         <v>1.0</v>
@@ -15409,7 +15406,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B97" s="2">
         <v>1.0</v>
@@ -15417,7 +15414,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B98" s="2">
         <v>1.0</v>
@@ -15425,7 +15422,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
@@ -15433,7 +15430,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B100" s="2">
         <v>1.0</v>
@@ -15441,7 +15438,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B101" s="2">
         <v>1.0</v>
@@ -15449,7 +15446,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B102" s="2">
         <v>1.0</v>
@@ -15491,7 +15488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -15504,7 +15501,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -15517,7 +15514,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -15530,7 +15527,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -15543,7 +15540,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -15556,7 +15553,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
@@ -15569,7 +15566,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B8" s="1">
         <v>1.0</v>
@@ -15582,7 +15579,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -15595,7 +15592,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B10" s="1">
         <v>1.0</v>
@@ -15608,7 +15605,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -15621,7 +15618,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -15634,7 +15631,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -15647,7 +15644,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -15660,7 +15657,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -15673,7 +15670,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B16" s="1">
         <v>1.0</v>
@@ -15686,13 +15683,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1625</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1626</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -15701,7 +15698,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B18" s="1">
         <v>1.0</v>
@@ -15714,13 +15711,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B19" s="1">
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -15729,7 +15726,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -15742,7 +15739,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -15755,7 +15752,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -15768,7 +15765,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B23" s="1">
         <v>1.0</v>
@@ -15781,7 +15778,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B24" s="1">
         <v>1.0</v>
@@ -15794,7 +15791,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -15807,7 +15804,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B26" s="1">
         <v>1.0</v>
@@ -15820,7 +15817,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B27" s="1">
         <v>1.0</v>
@@ -15833,7 +15830,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B28" s="1">
         <v>1.0</v>
@@ -15846,7 +15843,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B29" s="1">
         <v>1.0</v>
@@ -15859,7 +15856,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B30" s="1">
         <v>1.0</v>
@@ -15872,7 +15869,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B31" s="1">
         <v>1.0</v>
@@ -15885,7 +15882,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B32" s="1">
         <v>1.0</v>
@@ -15898,7 +15895,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B33" s="1">
         <v>1.0</v>
@@ -15911,7 +15908,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B34" s="1">
         <v>1.0</v>
@@ -15924,7 +15921,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B35" s="1">
         <v>1.0</v>
@@ -15937,40 +15934,40 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>1645</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B37" s="1">
         <v>1.0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B38" s="1">
         <v>1.0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B39" s="1">
         <v>1.0</v>
@@ -15978,7 +15975,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B40" s="1">
         <v>1.0</v>
@@ -15986,7 +15983,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B41" s="1">
         <v>1.0</v>
@@ -15994,7 +15991,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B42" s="1">
         <v>1.0</v>
@@ -16002,7 +15999,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B43" s="1">
         <v>1.0</v>
@@ -16010,7 +16007,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B44" s="1">
         <v>1.0</v>
@@ -16018,7 +16015,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B45" s="1">
         <v>1.0</v>
@@ -16026,7 +16023,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B46" s="1">
         <v>1.0</v>
@@ -16034,7 +16031,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B47" s="1">
         <v>1.0</v>
@@ -16042,7 +16039,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B48" s="1">
         <v>1.0</v>
@@ -16050,7 +16047,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B49" s="1">
         <v>1.0</v>
@@ -16058,18 +16055,18 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>1660</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B51" s="1">
         <v>1.0</v>
@@ -16077,7 +16074,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B52" s="1">
         <v>1.0</v>
@@ -16085,7 +16082,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B53" s="1">
         <v>1.0</v>
@@ -16093,7 +16090,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B54" s="1">
         <v>1.0</v>
@@ -16101,7 +16098,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B55" s="1">
         <v>1.0</v>
@@ -16109,18 +16106,18 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B57" s="1">
         <v>1.0</v>
@@ -16128,7 +16125,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B58" s="1">
         <v>1.0</v>
@@ -16136,7 +16133,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B59" s="1">
         <v>1.0</v>
@@ -16144,7 +16141,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B60" s="1">
         <v>1.0</v>
@@ -16152,7 +16149,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B61" s="1">
         <v>1.0</v>
@@ -16160,7 +16157,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B62" s="1">
         <v>1.0</v>
@@ -16168,7 +16165,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B63" s="1">
         <v>1.0</v>
@@ -16176,7 +16173,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B64" s="1">
         <v>1.0</v>
@@ -16184,7 +16181,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B65" s="1">
         <v>1.0</v>
@@ -16192,7 +16189,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B66" s="1">
         <v>1.0</v>
@@ -16200,7 +16197,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B67" s="1">
         <v>1.0</v>
@@ -16208,7 +16205,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B68" s="1">
         <v>1.0</v>
@@ -16216,7 +16213,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B69" s="1">
         <v>1.0</v>
@@ -16224,7 +16221,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B70" s="1">
         <v>1.0</v>
@@ -16232,7 +16229,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B71" s="1">
         <v>1.0</v>
@@ -16240,7 +16237,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B72" s="1">
         <v>1.0</v>
@@ -16248,7 +16245,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B73" s="1">
         <v>1.0</v>
@@ -16256,7 +16253,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B74" s="1">
         <v>1.0</v>
@@ -16264,7 +16261,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B75" s="1">
         <v>1.0</v>
@@ -16272,7 +16269,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B76" s="1">
         <v>1.0</v>
@@ -16280,7 +16277,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B77" s="1">
         <v>1.0</v>
@@ -16288,7 +16285,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B78" s="1">
         <v>1.0</v>
@@ -16296,7 +16293,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B79" s="1">
         <v>1.0</v>
@@ -16304,7 +16301,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B80" s="1">
         <v>1.0</v>
@@ -16312,40 +16309,40 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>1693</v>
-      </c>
-      <c r="B81" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>1695</v>
-      </c>
-      <c r="B82" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>1697</v>
-      </c>
-      <c r="B83" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B84" s="1">
         <v>1.0</v>
@@ -16353,7 +16350,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B85" s="1">
         <v>1.0</v>
@@ -16361,18 +16358,18 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B86" s="1">
         <v>1.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B87" s="1">
         <v>1.0</v>
@@ -16380,7 +16377,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B88" s="1">
         <v>1.0</v>
@@ -16388,7 +16385,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B89" s="1">
         <v>1.0</v>
@@ -16396,7 +16393,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B90" s="1">
         <v>1.0</v>
@@ -16404,40 +16401,40 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>1706</v>
-      </c>
-      <c r="B91" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>1708</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B93" s="1">
         <v>1.0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B94" s="1">
         <v>1.0</v>
@@ -16445,7 +16442,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B95" s="1">
         <v>1.0</v>
@@ -16453,7 +16450,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B96" s="1">
         <v>1.0</v>
@@ -16461,40 +16458,40 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B97" s="1">
         <v>1.0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>1717</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B100" s="1">
         <v>1.0</v>
@@ -16502,7 +16499,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B101" s="1">
         <v>1.0</v>
@@ -16510,7 +16507,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B102" s="1">
         <v>1.0</v>
@@ -16518,7 +16515,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B103" s="1">
         <v>1.0</v>
@@ -16526,7 +16523,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B104" s="1">
         <v>1.0</v>
@@ -16534,7 +16531,7 @@
     </row>
     <row r="105">
       <c r="A105" s="13" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B105" s="1">
         <v>1.0</v>
@@ -16542,18 +16539,18 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>1725</v>
-      </c>
-      <c r="B106" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B107" s="1">
         <v>1.0</v>
@@ -16561,7 +16558,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B108" s="1">
         <v>1.0</v>
@@ -16569,7 +16566,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B109" s="1">
         <v>1.0</v>
@@ -16577,7 +16574,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B110" s="1">
         <v>1.0</v>
@@ -16585,7 +16582,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B111" s="1">
         <v>1.0</v>
@@ -16593,7 +16590,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B112" s="1">
         <v>1.0</v>
@@ -16601,7 +16598,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B113" s="1">
         <v>1.0</v>
@@ -16609,7 +16606,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B114" s="1">
         <v>1.0</v>
@@ -16617,7 +16614,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B115" s="1">
         <v>1.0</v>
@@ -16625,7 +16622,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B116" s="1">
         <v>1.0</v>
@@ -16633,7 +16630,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B117" s="1">
         <v>1.0</v>
@@ -16641,7 +16638,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B118" s="1">
         <v>1.0</v>
@@ -16649,7 +16646,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B119" s="1">
         <v>1.0</v>
@@ -16657,7 +16654,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B120" s="1">
         <v>1.0</v>
@@ -16665,7 +16662,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B121" s="1">
         <v>1.0</v>
@@ -16673,7 +16670,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B122" s="1">
         <v>1.0</v>
@@ -16681,7 +16678,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B123" s="1">
         <v>1.0</v>
@@ -16689,7 +16686,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B124" s="1">
         <v>1.0</v>
@@ -16697,7 +16694,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B125" s="1">
         <v>1.0</v>
@@ -16732,7 +16729,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -16740,7 +16737,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -16748,7 +16745,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -16756,7 +16753,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -16764,7 +16761,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B6" s="2">
         <v>1.0</v>
@@ -16772,7 +16769,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -16780,7 +16777,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B8" s="2">
         <v>5.0</v>
@@ -16788,7 +16785,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -16796,7 +16793,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B10" s="2">
         <v>5.0</v>
@@ -16804,7 +16801,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B11" s="2">
         <v>5.0</v>
@@ -16812,7 +16809,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -16820,7 +16817,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -16828,7 +16825,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B14" s="2">
         <v>10.0</v>
@@ -16836,7 +16833,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B15" s="2">
         <v>20.0</v>
@@ -16844,7 +16841,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -16852,7 +16849,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -16860,7 +16857,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -16868,7 +16865,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B19" s="2">
         <v>10.0</v>
@@ -16876,7 +16873,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B20" s="2">
         <v>5.0</v>
@@ -16884,7 +16881,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B21" s="2">
         <v>10.0</v>
@@ -16892,7 +16889,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B22" s="2">
         <v>5.0</v>
@@ -16900,7 +16897,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B23" s="2">
         <v>5.0</v>
@@ -16908,7 +16905,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -16916,7 +16913,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -16924,7 +16921,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -16932,7 +16929,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -16940,7 +16937,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -16948,7 +16945,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B29" s="2">
         <v>10.0</v>
@@ -16956,7 +16953,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B30" s="2">
         <v>10.0</v>
@@ -16964,7 +16961,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B31" s="2">
         <v>5.0</v>
@@ -16972,7 +16969,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B32" s="2">
         <v>5.0</v>
@@ -16980,7 +16977,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B33" s="2">
         <v>5.0</v>
@@ -16988,7 +16985,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B34" s="2">
         <v>5.0</v>
@@ -16996,7 +16993,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B35" s="2">
         <v>5.0</v>
@@ -17004,7 +17001,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -17020,7 +17017,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B38" s="2">
         <v>5.0</v>
@@ -17028,7 +17025,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B39" s="2">
         <v>10.0</v>
@@ -17036,7 +17033,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B40" s="2">
         <v>4.0</v>
@@ -17044,7 +17041,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B41" s="2">
         <v>10.0</v>
@@ -17052,7 +17049,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B42" s="2">
         <v>5.0</v>
@@ -17060,7 +17057,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B43" s="2">
         <v>3.0</v>
@@ -17068,7 +17065,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B44" s="2">
         <v>3.0</v>
@@ -17076,7 +17073,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -17084,7 +17081,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -17092,7 +17089,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -17100,7 +17097,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -17108,7 +17105,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -17116,7 +17113,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -17124,7 +17121,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -17132,7 +17129,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -17140,7 +17137,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -17148,7 +17145,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -17156,7 +17153,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -17164,7 +17161,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -17202,7 +17199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -17210,7 +17207,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B3" s="2">
         <v>5.0</v>
@@ -17218,7 +17215,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B4" s="2">
         <v>5.0</v>
@@ -17226,7 +17223,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B5" s="2">
         <v>5.0</v>
@@ -17234,7 +17231,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B6" s="2">
         <v>5.0</v>
@@ -17242,7 +17239,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B7" s="2">
         <v>5.0</v>
@@ -17250,7 +17247,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B8" s="2">
         <v>5.0</v>
@@ -17258,7 +17255,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -17266,7 +17263,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B10" s="2">
         <v>5.0</v>
@@ -17274,7 +17271,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -17282,7 +17279,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -17290,7 +17287,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -17298,7 +17295,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -17306,7 +17303,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -17314,7 +17311,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -17322,7 +17319,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -17330,7 +17327,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -17338,7 +17335,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -17346,7 +17343,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -17354,7 +17351,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -17362,7 +17359,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -17370,7 +17367,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -17378,7 +17375,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -17386,7 +17383,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -17394,7 +17391,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -17402,7 +17399,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -17410,7 +17407,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -17418,7 +17415,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -17426,7 +17423,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -17434,7 +17431,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -17442,7 +17439,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -17450,7 +17447,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -17458,7 +17455,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -17466,7 +17463,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B35" s="2">
         <v>1.0</v>
@@ -17474,7 +17471,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -17482,7 +17479,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -17490,7 +17487,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
@@ -17498,7 +17495,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -17506,7 +17503,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -17514,7 +17511,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -17522,7 +17519,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -17530,7 +17527,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -17538,7 +17535,7 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -17546,7 +17543,7 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -17554,7 +17551,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -17562,7 +17559,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -17570,7 +17567,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -17578,7 +17575,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -17586,7 +17583,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -17594,7 +17591,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -17602,7 +17599,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -17610,7 +17607,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -17618,7 +17615,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -17626,7 +17623,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -17634,7 +17631,7 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -17642,7 +17639,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -17650,7 +17647,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B58" s="2">
         <v>1.0</v>
@@ -17658,7 +17655,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -17666,7 +17663,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -17674,7 +17671,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -17682,7 +17679,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -17690,7 +17687,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -17698,7 +17695,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B64" s="2">
         <v>1.0</v>
@@ -17706,7 +17703,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -17714,7 +17711,7 @@
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
@@ -17722,7 +17719,7 @@
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
@@ -17874,7 +17871,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -17890,7 +17887,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B7" s="2">
         <v>1.0</v>
@@ -17898,7 +17895,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B8" s="2">
         <v>1.0</v>
@@ -17906,7 +17903,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B9" s="2">
         <v>1.0</v>
@@ -17914,7 +17911,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B10" s="2">
         <v>1.0</v>
@@ -17922,7 +17919,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -17930,7 +17927,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -17938,7 +17935,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B13" s="2">
         <v>1.0</v>
@@ -17946,7 +17943,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
@@ -17954,7 +17951,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -17962,7 +17959,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -17970,7 +17967,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B17" s="2">
         <v>1.0</v>
@@ -17978,7 +17975,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B18" s="2">
         <v>1.0</v>
@@ -17986,7 +17983,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B19" s="2">
         <v>1.0</v>
@@ -17994,7 +17991,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -18002,7 +17999,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B21" s="2">
         <v>1.0</v>
@@ -18010,7 +18007,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B22" s="2">
         <v>1.0</v>
@@ -18018,7 +18015,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B23" s="2">
         <v>1.0</v>
@@ -18026,7 +18023,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -18034,7 +18031,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B25" s="2">
         <v>1.0</v>
@@ -18042,7 +18039,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -18050,7 +18047,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
@@ -18058,7 +18055,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
@@ -18066,7 +18063,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -18074,7 +18071,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B30" s="2">
         <v>1.0</v>
@@ -18082,7 +18079,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B31" s="2">
         <v>1.0</v>
@@ -18090,7 +18087,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
@@ -18098,7 +18095,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B33" s="2">
         <v>1.0</v>
@@ -18106,7 +18103,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B34" s="2">
         <v>1.0</v>
@@ -18114,18 +18111,18 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>1893</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B36" s="2">
         <v>1.0</v>
@@ -18133,7 +18130,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B37" s="2">
         <v>1.0</v>
@@ -18141,7 +18138,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B38" s="2">
         <v>1.0</v>
@@ -18149,7 +18146,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B39" s="2">
         <v>1.0</v>
@@ -18157,7 +18154,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B40" s="2">
         <v>1.0</v>
@@ -18165,7 +18162,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B41" s="2">
         <v>1.0</v>
@@ -18173,7 +18170,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B42" s="2">
         <v>1.0</v>
@@ -18181,7 +18178,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B43" s="2">
         <v>1.0</v>
@@ -18189,7 +18186,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B44" s="2">
         <v>1.0</v>
@@ -18197,7 +18194,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B45" s="2">
         <v>1.0</v>
@@ -18205,7 +18202,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B46" s="2">
         <v>1.0</v>
@@ -18213,7 +18210,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B47" s="2">
         <v>1.0</v>
@@ -18221,7 +18218,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -18229,7 +18226,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B49" s="2">
         <v>1.0</v>
@@ -18237,7 +18234,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B50" s="2">
         <v>1.0</v>
@@ -18245,7 +18242,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B51" s="2">
         <v>1.0</v>
@@ -18253,7 +18250,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B52" s="2">
         <v>1.0</v>
@@ -18261,7 +18258,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B53" s="2">
         <v>1.0</v>
@@ -18269,7 +18266,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B54" s="2">
         <v>1.0</v>
@@ -18277,7 +18274,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B55" s="2">
         <v>1.0</v>
@@ -18285,7 +18282,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B56" s="2">
         <v>1.0</v>
@@ -18293,7 +18290,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B57" s="2">
         <v>1.0</v>
@@ -18309,7 +18306,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -18317,7 +18314,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B60" s="2">
         <v>1.0</v>
@@ -18325,7 +18322,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B61" s="2">
         <v>1.0</v>
@@ -18333,7 +18330,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B62" s="2">
         <v>1.0</v>
@@ -18341,7 +18338,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B63" s="2">
         <v>1.0</v>
@@ -18352,18 +18349,18 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>1922</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B65" s="2">
         <v>1.0</v>
@@ -18374,29 +18371,29 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B67" s="2">
         <v>1.0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B68" s="2">
         <v>1.0</v>
@@ -18412,7 +18409,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B70" s="2">
         <v>1.0</v>
@@ -18420,7 +18417,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B71" s="2">
         <v>1.0</v>
@@ -18428,7 +18425,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B72" s="2">
         <v>1.0</v>
@@ -18436,7 +18433,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B73" s="2">
         <v>1.0</v>
@@ -18444,18 +18441,18 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B74" s="2">
         <v>1.0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B75" s="2">
         <v>1.0</v>
@@ -18463,18 +18460,18 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B76" s="2">
         <v>1.0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B77" s="2">
         <v>1.0</v>
@@ -18482,7 +18479,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B78" s="2">
         <v>1.0</v>
@@ -18490,7 +18487,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B79" s="2">
         <v>1.0</v>
@@ -18498,7 +18495,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B80" s="2">
         <v>1.0</v>
@@ -18506,7 +18503,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
@@ -18514,7 +18511,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
@@ -18522,18 +18519,18 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>1941</v>
-      </c>
-      <c r="B83" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B84" s="2">
         <v>1.0</v>
@@ -18541,29 +18538,29 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B85" s="2">
         <v>1.0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B86" s="2">
         <v>1.0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B87" s="2">
         <v>1.0</v>
@@ -18571,18 +18568,18 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B88" s="2">
         <v>1.0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B89" s="2">
         <v>1.0</v>
@@ -18590,7 +18587,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B90" s="2">
         <v>1.0</v>
@@ -18598,18 +18595,18 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B91" s="2">
         <v>1.0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -18617,7 +18614,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B93" s="2">
         <v>1.0</v>
@@ -18625,7 +18622,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B94" s="2">
         <v>1.0</v>
@@ -18633,7 +18630,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B95" s="2">
         <v>1.0</v>
@@ -18641,7 +18638,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B96" s="2">
         <v>1.0</v>
@@ -18649,18 +18646,18 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B97" s="2">
         <v>1.0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B98" s="2">
         <v>1.0</v>
@@ -18668,18 +18665,18 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B100" s="2">
         <v>1.0</v>
@@ -18687,7 +18684,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B101" s="2">
         <v>1.0</v>
@@ -18695,7 +18692,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B102" s="2">
         <v>1.0</v>
@@ -18703,7 +18700,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B103" s="2">
         <v>1.0</v>
@@ -18711,7 +18708,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B104" s="2">
         <v>1.0</v>
@@ -18719,7 +18716,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B105" s="2">
         <v>1.0</v>
@@ -18727,7 +18724,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B106" s="2">
         <v>1.0</v>
@@ -18735,7 +18732,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B107" s="2">
         <v>1.0</v>
@@ -18743,7 +18740,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B108" s="2">
         <v>1.0</v>
@@ -18751,18 +18748,18 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B109" s="2">
         <v>1.0</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B110" s="2">
         <v>1.0</v>
@@ -18770,7 +18767,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B111" s="2">
         <v>1.0</v>
@@ -18778,18 +18775,18 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B112" s="2">
         <v>1.0</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B113" s="2">
         <v>1.0</v>
@@ -18797,7 +18794,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B114" s="2">
         <v>1.0</v>
@@ -18805,7 +18802,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B115" s="2">
         <v>1.0</v>
@@ -18813,7 +18810,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B116" s="2">
         <v>1.0</v>
@@ -18821,7 +18818,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B117" s="2">
         <v>1.0</v>
@@ -18829,7 +18826,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B118" s="2">
         <v>1.0</v>
@@ -18837,7 +18834,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B119" s="2">
         <v>1.0</v>
@@ -18845,7 +18842,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B120" s="2">
         <v>1.0</v>
@@ -18853,7 +18850,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B121" s="2">
         <v>1.0</v>
@@ -18861,7 +18858,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B122" s="2">
         <v>1.0</v>
@@ -18869,7 +18866,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B123" s="2">
         <v>1.0</v>
@@ -18877,7 +18874,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B124" s="2">
         <v>1.0</v>
@@ -18885,7 +18882,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B125" s="2">
         <v>1.0</v>
@@ -18893,7 +18890,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B126" s="2">
         <v>1.0</v>
@@ -18901,7 +18898,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B127" s="2">
         <v>1.0</v>
@@ -18909,7 +18906,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B128" s="2">
         <v>1.0</v>
@@ -18917,7 +18914,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B129" s="2">
         <v>1.0</v>
@@ -18925,7 +18922,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B130" s="2">
         <v>1.0</v>
@@ -18933,7 +18930,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B131" s="2">
         <v>1.0</v>
@@ -18941,7 +18938,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B132" s="2">
         <v>1.0</v>
@@ -18949,7 +18946,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B133" s="2">
         <v>1.0</v>
@@ -18957,7 +18954,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B134" s="2">
         <v>1.0</v>
@@ -18965,7 +18962,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B135" s="2">
         <v>1.0</v>
@@ -18973,7 +18970,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B136" s="2">
         <v>1.0</v>
@@ -18981,7 +18978,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B137" s="2">
         <v>1.0</v>
@@ -18989,7 +18986,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B138" s="2">
         <v>1.0</v>
@@ -18997,7 +18994,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B139" s="2">
         <v>1.0</v>
@@ -19005,7 +19002,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B140" s="2">
         <v>1.0</v>
@@ -19013,7 +19010,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B141" s="2">
         <v>1.0</v>
@@ -19021,7 +19018,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B142" s="2">
         <v>1.0</v>
@@ -19029,7 +19026,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B143" s="2">
         <v>1.0</v>
@@ -19037,7 +19034,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B144" s="2">
         <v>1.0</v>
@@ -19045,7 +19042,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B145" s="2">
         <v>1.0</v>
@@ -19053,7 +19050,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B146" s="2">
         <v>1.0</v>
@@ -19061,7 +19058,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B147" s="2">
         <v>1.0</v>
@@ -19069,7 +19066,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B148" s="2">
         <v>1.0</v>
@@ -19077,7 +19074,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B149" s="2">
         <v>1.0</v>
@@ -19085,7 +19082,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B150" s="2">
         <v>1.0</v>
@@ -19093,7 +19090,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B151" s="2">
         <v>1.0</v>
@@ -19101,7 +19098,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B152" s="2">
         <v>1.0</v>
@@ -19109,7 +19106,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B153" s="2">
         <v>1.0</v>
@@ -19117,7 +19114,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B154" s="2">
         <v>1.0</v>
@@ -19125,7 +19122,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B155" s="2">
         <v>1.0</v>
@@ -19133,7 +19130,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B156" s="2">
         <v>1.0</v>
@@ -19141,7 +19138,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B157" s="2">
         <v>1.0</v>
@@ -19149,7 +19146,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B158" s="2">
         <v>1.0</v>
@@ -19157,7 +19154,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B159" s="2">
         <v>1.0</v>
@@ -19165,7 +19162,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B160" s="2">
         <v>1.0</v>
@@ -19181,7 +19178,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B162" s="2">
         <v>1.0</v>
@@ -19189,7 +19186,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B163" s="2">
         <v>1.0</v>
@@ -19197,7 +19194,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B164" s="2">
         <v>1.0</v>
@@ -19205,7 +19202,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B165" s="2">
         <v>1.0</v>
@@ -19213,7 +19210,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B166" s="2">
         <v>1.0</v>
@@ -19224,7 +19221,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B167" s="2">
         <v>1.0</v>
@@ -19235,7 +19232,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B168" s="2">
         <v>1.0</v>
@@ -19246,7 +19243,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B169" s="2">
         <v>1.0</v>
@@ -19254,7 +19251,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B170" s="2">
         <v>1.0</v>
@@ -19262,7 +19259,7 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B171" s="2">
         <v>1.0</v>
@@ -19271,16 +19268,16 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
         <v>2030</v>
-      </c>
-      <c r="B172" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="3" t="s">
-        <v>2031</v>
       </c>
       <c r="B173" s="2">
         <v>1.0</v>
@@ -19289,18 +19286,18 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>2032</v>
-      </c>
-      <c r="B174" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B175" s="2">
         <v>1.0</v>
@@ -19309,7 +19306,7 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B176" s="2">
         <v>1.0</v>
@@ -19318,7 +19315,7 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B177" s="2">
         <v>1.0</v>
@@ -19327,7 +19324,7 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B178" s="2">
         <v>1.0</v>
@@ -19336,7 +19333,7 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B179" s="2">
         <v>1.0</v>
